--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813903.877968737</v>
+        <v>1809417.564242038</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5117489.517676651</v>
+        <v>5371810.097473023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11264755.29839494</v>
+        <v>11295210.39205639</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6093302.932335494</v>
+        <v>6053125.220007792</v>
       </c>
     </row>
     <row r="11">
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X21" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="C23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U24" t="n">
-        <v>11.80515118300276</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="V24" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.56635248423083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="S25" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="T25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
     <row r="28">
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>22.56635248423083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.51876043078499</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.79306520061175</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>7.25452685283409</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="T30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="V30" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6663295195714304</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.9000229646594</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="V31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="H32" t="n">
-        <v>6.247686505680002</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>16.31866597855083</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3108,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U34" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="V34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S35" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="T35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="W36" t="n">
-        <v>22.56635248423083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="S37" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="U37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>22.56635248423083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="E39" t="n">
-        <v>7.254526852834033</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F39" t="n">
-        <v>11.51876043078502</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.793065200611778</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,19 +3630,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W40" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>25.62029119463083</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
     <row r="42">
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="U42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="W43" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>3.192094113232598</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.049623295570466</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C20" t="n">
-        <v>2.049623295570466</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="D20" t="n">
-        <v>2.049623295570466</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="E20" t="n">
-        <v>2.049623295570466</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="F20" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="G20" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="H20" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I20" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J20" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K20" t="n">
-        <v>27.41371157825499</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L20" t="n">
-        <v>52.77779986093951</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M20" t="n">
-        <v>78.14188814362403</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="N20" t="n">
-        <v>102.4811647785233</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="O20" t="n">
-        <v>102.4811647785233</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P20" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q20" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R20" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S20" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T20" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U20" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V20" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W20" t="n">
-        <v>50.72300074896609</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X20" t="n">
-        <v>24.84391873418747</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.049623295570466</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C21" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J21" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K21" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L21" t="n">
-        <v>26.38889993046976</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="M21" t="n">
-        <v>26.38889993046976</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="N21" t="n">
-        <v>26.38889993046976</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="O21" t="n">
-        <v>51.75298821315428</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P21" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R21" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S21" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T21" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U21" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V21" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W21" t="n">
-        <v>76.6020827637447</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X21" t="n">
-        <v>50.72300074896609</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.72300074896609</v>
+        <v>3.95061877517296</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.80778732512771</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C22" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="D22" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="E22" t="n">
-        <v>27.92870531034908</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="F22" t="n">
-        <v>27.92870531034908</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="G22" t="n">
-        <v>27.92870531034908</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="H22" t="n">
-        <v>27.92870531034908</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I22" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J22" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K22" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L22" t="n">
-        <v>27.413711578255</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M22" t="n">
-        <v>52.77779986093952</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N22" t="n">
-        <v>78.14188814362404</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O22" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P22" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R22" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S22" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T22" t="n">
-        <v>53.80778732512771</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U22" t="n">
-        <v>53.80778732512771</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V22" t="n">
-        <v>53.80778732512771</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W22" t="n">
-        <v>53.80778732512771</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X22" t="n">
-        <v>53.80778732512771</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.80778732512771</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C23" t="n">
-        <v>2.049623295570466</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="D23" t="n">
-        <v>2.049623295570466</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="E23" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="F23" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="G23" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I23" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J23" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K23" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L23" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M23" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N23" t="n">
-        <v>78.14188814362403</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O23" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R23" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S23" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T23" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U23" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V23" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W23" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X23" t="n">
-        <v>27.92870531034908</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Y23" t="n">
-        <v>27.92870531034908</v>
+        <v>14.49634020541598</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K24" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L24" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M24" t="n">
-        <v>52.77779986093951</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="N24" t="n">
-        <v>77.1170764958388</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="O24" t="n">
-        <v>77.1170764958388</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="P24" t="n">
-        <v>77.1170764958388</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R24" t="n">
-        <v>91.61126447425255</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S24" t="n">
-        <v>65.73218245947393</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T24" t="n">
-        <v>65.73218245947393</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U24" t="n">
-        <v>53.80778732512771</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="V24" t="n">
-        <v>27.92870531034908</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="W24" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="X24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="C25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="D25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="E25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="F25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="G25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="H25" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="I25" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J25" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K25" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L25" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362403</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O25" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R25" t="n">
-        <v>79.68686933990632</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S25" t="n">
-        <v>53.80778732512771</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="T25" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="U25" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V25" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W25" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X25" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.84391873418747</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="C26" t="n">
-        <v>24.84391873418747</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="D26" t="n">
-        <v>24.84391873418747</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="E26" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F26" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G26" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H26" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I26" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J26" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K26" t="n">
-        <v>27.41371157825499</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="L26" t="n">
-        <v>52.77779986093951</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="M26" t="n">
-        <v>77.1170764958388</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="N26" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="O26" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R26" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S26" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T26" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U26" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V26" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W26" t="n">
-        <v>50.72300074896609</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X26" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="M27" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="N27" t="n">
-        <v>26.38889993046976</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="O27" t="n">
-        <v>51.75298821315428</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="P27" t="n">
-        <v>77.1170764958388</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R27" t="n">
-        <v>102.4811647785233</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4811647785233</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T27" t="n">
-        <v>79.68686933990632</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U27" t="n">
-        <v>53.80778732512771</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V27" t="n">
-        <v>27.92870531034908</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="W27" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="X27" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="C28" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="D28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K28" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L28" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M28" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N28" t="n">
-        <v>78.14188814362404</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R28" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S28" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T28" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U28" t="n">
-        <v>50.72300074896609</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V28" t="n">
-        <v>50.72300074896609</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W28" t="n">
-        <v>24.84391873418747</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X28" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="C29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="D29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="E29" t="n">
-        <v>50.72300074896609</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F29" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G29" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H29" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I29" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J29" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K29" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L29" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M29" t="n">
-        <v>26.38889993046976</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="N29" t="n">
-        <v>51.75298821315428</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="O29" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S29" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T29" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U29" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V29" t="n">
-        <v>76.6020827637447</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="W29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="X29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y29" t="n">
-        <v>76.6020827637447</v>
+        <v>3.95061877517296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F30" t="n">
-        <v>5.881002286087385</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G30" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H30" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I30" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J30" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K30" t="n">
-        <v>2.049623295570466</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="L30" t="n">
-        <v>2.049623295570466</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="M30" t="n">
-        <v>26.38889993046976</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="N30" t="n">
-        <v>51.75298821315428</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="O30" t="n">
-        <v>51.75298821315428</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P30" t="n">
-        <v>77.1170764958388</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R30" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S30" t="n">
-        <v>95.15335987667071</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T30" t="n">
-        <v>69.27427786189209</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U30" t="n">
-        <v>69.27427786189209</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="V30" t="n">
-        <v>43.39519584711347</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="W30" t="n">
-        <v>17.51611383233485</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="X30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.51611383233485</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H31" t="n">
-        <v>24.17085861340825</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I31" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J31" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K31" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L31" t="n">
-        <v>27.413711578255</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093952</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362404</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R31" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S31" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T31" t="n">
-        <v>76.6020827637447</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="U31" t="n">
-        <v>76.6020827637447</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="V31" t="n">
-        <v>50.72300074896609</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="W31" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="X31" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C32" t="n">
-        <v>60.11858177530952</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="D32" t="n">
-        <v>60.11858177530952</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="E32" t="n">
-        <v>60.11858177530952</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="F32" t="n">
-        <v>34.2394997605309</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="G32" t="n">
-        <v>8.360417745752287</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="H32" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I32" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J32" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K32" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L32" t="n">
-        <v>27.41371157825499</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="M32" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N32" t="n">
-        <v>77.1170764958388</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.99766379008814</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.049623295570466</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C33" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="D33" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="E33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J33" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K33" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L33" t="n">
-        <v>2.049623295570466</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="M33" t="n">
-        <v>2.049623295570466</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N33" t="n">
-        <v>26.38889993046976</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O33" t="n">
-        <v>51.75298821315428</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P33" t="n">
-        <v>77.1170764958388</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R33" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S33" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T33" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U33" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V33" t="n">
-        <v>27.92870531034908</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W33" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X33" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.049623295570466</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L34" t="n">
-        <v>27.413711578255</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093952</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362404</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T34" t="n">
-        <v>76.6020827637447</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U34" t="n">
-        <v>50.72300074896609</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="V34" t="n">
-        <v>24.84391873418747</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="W34" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="X34" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="C35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="D35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="E35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="F35" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="G35" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I35" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J35" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K35" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L35" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="M35" t="n">
-        <v>78.14188814362403</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N35" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O35" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4811647785233</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S35" t="n">
-        <v>76.6020827637447</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="T35" t="n">
-        <v>50.72300074896609</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="U35" t="n">
-        <v>24.84391873418747</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="V35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="W35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="X35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="C36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="D36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="E36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="F36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="M36" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="N36" t="n">
-        <v>26.38889993046976</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="O36" t="n">
-        <v>51.75298821315428</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="P36" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R36" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T36" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U36" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V36" t="n">
-        <v>24.84391873418747</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W36" t="n">
-        <v>2.049623295570466</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="X36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I37" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J37" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L37" t="n">
-        <v>27.413711578255</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093952</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362404</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R37" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S37" t="n">
-        <v>50.72300074896609</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="T37" t="n">
-        <v>50.72300074896609</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="U37" t="n">
-        <v>24.84391873418747</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="V37" t="n">
-        <v>24.84391873418747</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="W37" t="n">
-        <v>24.84391873418747</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="X37" t="n">
-        <v>24.84391873418747</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.84391873418747</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C38" t="n">
-        <v>50.72300074896609</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="D38" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="E38" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L38" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="M38" t="n">
-        <v>26.38889993046976</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="N38" t="n">
-        <v>51.75298821315428</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="O38" t="n">
-        <v>77.1170764958388</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S38" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y38" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>24.84391873418747</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="C39" t="n">
-        <v>24.84391873418747</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="D39" t="n">
-        <v>24.84391873418747</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="E39" t="n">
-        <v>17.51611383233491</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F39" t="n">
-        <v>5.881002286087414</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G39" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H39" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I39" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J39" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K39" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="L39" t="n">
-        <v>2.049623295570466</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="M39" t="n">
-        <v>2.049623295570466</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N39" t="n">
-        <v>26.38889993046976</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O39" t="n">
-        <v>51.75298821315428</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P39" t="n">
-        <v>77.1170764958388</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R39" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S39" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T39" t="n">
-        <v>50.72300074896609</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U39" t="n">
-        <v>24.84391873418747</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V39" t="n">
-        <v>24.84391873418747</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W39" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X39" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y39" t="n">
-        <v>24.84391873418747</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L40" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M40" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N40" t="n">
-        <v>78.14188814362404</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R40" t="n">
-        <v>102.4811647785233</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S40" t="n">
-        <v>102.4811647785233</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T40" t="n">
-        <v>79.68686933990632</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U40" t="n">
-        <v>53.80778732512771</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V40" t="n">
-        <v>27.92870531034908</v>
+        <v>7.611310746237601</v>
       </c>
       <c r="W40" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="X40" t="n">
-        <v>2.049623295570466</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79.68686933990632</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="C41" t="n">
-        <v>53.80778732512771</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="D41" t="n">
-        <v>53.80778732512771</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="E41" t="n">
-        <v>27.92870531034908</v>
+        <v>3.95061877517296</v>
       </c>
       <c r="F41" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K41" t="n">
-        <v>27.41371157825499</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L41" t="n">
-        <v>52.77779986093951</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="M41" t="n">
-        <v>52.77779986093951</v>
+        <v>3.732807602894614</v>
       </c>
       <c r="N41" t="n">
-        <v>52.77779986093951</v>
+        <v>7.320651803735068</v>
       </c>
       <c r="O41" t="n">
-        <v>78.14188814362403</v>
+        <v>10.90849600457552</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R41" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S41" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U41" t="n">
-        <v>79.68686933990632</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V41" t="n">
-        <v>79.68686933990632</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W41" t="n">
-        <v>79.68686933990632</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X41" t="n">
-        <v>79.68686933990632</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y41" t="n">
-        <v>79.68686933990632</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="C42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="D42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="E42" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="F42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K42" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L42" t="n">
-        <v>2.049623295570466</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N42" t="n">
-        <v>27.41371157825499</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O42" t="n">
-        <v>52.77779986093951</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P42" t="n">
-        <v>78.14188814362403</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R42" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S42" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T42" t="n">
-        <v>102.4811647785233</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U42" t="n">
-        <v>76.6020827637447</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V42" t="n">
-        <v>50.72300074896609</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W42" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.049623295570466</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="C43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="D43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="E43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="F43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="G43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="H43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="I43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="L43" t="n">
-        <v>27.41371157825499</v>
+        <v>3.877771004948773</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093951</v>
+        <v>7.465615205789227</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R43" t="n">
-        <v>102.4811647785233</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S43" t="n">
-        <v>76.6020827637447</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T43" t="n">
-        <v>53.80778732512771</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U43" t="n">
-        <v>27.92870531034908</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V43" t="n">
-        <v>27.92870531034908</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W43" t="n">
-        <v>2.049623295570466</v>
+        <v>3.514264292222055</v>
       </c>
       <c r="X43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.049623295570466</v>
+        <v>0.2899268041083195</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>261.3867061646181</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M20" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>253.9981915106306</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L21" t="n">
-        <v>163.1395076939139</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>145.6116912945297</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.6020652806523</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M22" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N22" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L23" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>255.9665244219036</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N23" t="n">
-        <v>255.0333547912217</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O23" t="n">
-        <v>254.6833393357264</v>
+        <v>233.5758687941981</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L24" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>155.926839997373</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.6020652806523</v>
+        <v>143.4594314585329</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M25" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N25" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>245.7101422396114</v>
+        <v>223.567508417492</v>
       </c>
       <c r="L26" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>254.9313611413124</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O26" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>256.8532869499004</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9960,19 +9960,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N27" t="n">
-        <v>155.926839997373</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O27" t="n">
-        <v>168.2165356390753</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P27" t="n">
-        <v>159.5946986089611</v>
+        <v>137.4520647868416</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M28" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N28" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L29" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>255.0333547912217</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O29" t="n">
-        <v>255.7185026163176</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P29" t="n">
-        <v>256.8532869499004</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>141.3190963468704</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M30" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5946986089611</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M31" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N31" t="n">
-        <v>153.305835659864</v>
+        <v>131.1632018377446</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L32" t="n">
-        <v>261.3867061646181</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M32" t="n">
-        <v>255.9665244219036</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>253.9981915106306</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O32" t="n">
-        <v>255.7185026163176</v>
+        <v>233.5758687941981</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N33" t="n">
-        <v>155.926839997373</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O33" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M34" t="n">
-        <v>164.5460751422359</v>
+        <v>142.4034413201165</v>
       </c>
       <c r="N34" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10586,16 +10586,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>245.7101422396114</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L35" t="n">
-        <v>261.3867061646181</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M35" t="n">
-        <v>255.9665244219036</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N35" t="n">
-        <v>253.9981915106306</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
@@ -10674,16 +10674,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>155.926839997373</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O36" t="n">
-        <v>168.2165356390753</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P36" t="n">
-        <v>159.5946986089611</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.6020652806523</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M37" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N37" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10829,16 +10829,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>254.9313611413124</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0333547912217</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O38" t="n">
-        <v>255.7185026163176</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P38" t="n">
-        <v>256.8532869499004</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N39" t="n">
-        <v>155.926839997373</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O39" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M40" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N40" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P41" t="n">
-        <v>255.8181236693092</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N42" t="n">
-        <v>156.9620032779641</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O42" t="n">
-        <v>168.2165356390753</v>
+        <v>146.0739018169558</v>
       </c>
       <c r="P42" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>164.5669020000612</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D14" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E14" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G14" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H14" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I14" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S14" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U14" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V14" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W14" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X14" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C15" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D15" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E15" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F15" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G15" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H15" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S15" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T15" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U15" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V15" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X15" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C16" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E16" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F16" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G16" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H16" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I16" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J16" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T16" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U16" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V16" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W16" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X16" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C17" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D17" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E17" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F17" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G17" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H17" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I17" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W17" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S18" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U18" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W18" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E19" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F19" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H19" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U19" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C20" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D20" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F20" t="n">
-        <v>317.4794128902964</v>
+        <v>309.8927805736847</v>
       </c>
       <c r="G20" t="n">
-        <v>325.90610466372</v>
+        <v>318.3194723471083</v>
       </c>
       <c r="H20" t="n">
-        <v>250.0781692643521</v>
+        <v>242.4915369477404</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>34.85219389510377</v>
+        <v>53.31784371124431</v>
       </c>
       <c r="S20" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W20" t="n">
-        <v>234.2240446713671</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X20" t="n">
-        <v>254.7141766324231</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2749533204077</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.51625960382143</v>
+        <v>69.54991848184056</v>
       </c>
       <c r="C21" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D21" t="n">
-        <v>35.48208022899284</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G21" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S21" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T21" t="n">
-        <v>110.7680958434065</v>
+        <v>103.1814635267948</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W21" t="n">
-        <v>136.6780591148737</v>
+        <v>154.7117179928928</v>
       </c>
       <c r="X21" t="n">
-        <v>90.75606115743156</v>
+        <v>109.2217109735721</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C22" t="n">
-        <v>52.22989705258193</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>49.8826884166638</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G22" t="n">
-        <v>78.59434650704368</v>
+        <v>71.00771419043198</v>
       </c>
       <c r="H22" t="n">
-        <v>72.8305396560245</v>
+        <v>65.2439073394128</v>
       </c>
       <c r="I22" t="n">
-        <v>40.43355088121238</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9996739909264</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T22" t="n">
-        <v>115.9826040926356</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V22" t="n">
-        <v>162.7410104724129</v>
+        <v>155.1543781558012</v>
       </c>
       <c r="W22" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X22" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>285.7505764954539</v>
       </c>
       <c r="C23" t="n">
-        <v>250.2559677249617</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>285.3790958423564</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>309.8927805736847</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>318.3194723471083</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.85219389510377</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T23" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W23" t="n">
-        <v>234.2240446713671</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X23" t="n">
-        <v>257.7681153428231</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S24" t="n">
-        <v>56.66624705779191</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>103.6134544649162</v>
       </c>
       <c r="U24" t="n">
-        <v>124.739598046557</v>
+        <v>128.958116912948</v>
       </c>
       <c r="V24" t="n">
-        <v>117.7836631033794</v>
+        <v>135.8173219813985</v>
       </c>
       <c r="W24" t="n">
-        <v>136.6780591148737</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>108.7897200354507</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>82.84871501391052</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>58.89920069735291</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.33040604152359</v>
+        <v>80.31012620914271</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9996739909264</v>
+        <v>127.0333328689455</v>
       </c>
       <c r="T25" t="n">
-        <v>112.9286653822356</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X25" t="n">
-        <v>110.6927313429913</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>294.2916929118459</v>
+        <v>289.7131237607115</v>
       </c>
       <c r="C26" t="n">
-        <v>276.8307430193729</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>266.2408928690483</v>
+        <v>261.6623237179139</v>
       </c>
       <c r="E26" t="n">
-        <v>293.4882213206271</v>
+        <v>289.3416431076141</v>
       </c>
       <c r="F26" t="n">
-        <v>318.4338969900768</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>326.8605887635004</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>251.0326533641325</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
-        <v>99.46738833454043</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>35.8066779948842</v>
+        <v>56.84840003838061</v>
       </c>
       <c r="S26" t="n">
-        <v>120.5779208346107</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>134.6537008124967</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>162.9035041562018</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>239.3101097185003</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
-        <v>235.1785287711475</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>255.6686607322036</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>297.7957899044189</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>78.09103489823269</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>84.26635023668109</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>59.00291681300411</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>69.2029317037663</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>56.62706364174923</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>48.90136841157599</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>23.79329548486182</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
-        <v>0.95448409978043</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.71568540100849</v>
+        <v>7.569107187995458</v>
       </c>
       <c r="S27" t="n">
-        <v>83.24102235220317</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>89.15622745895612</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>111.8789421347093</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>118.7381472031598</v>
+        <v>139.7798692466562</v>
       </c>
       <c r="W27" t="n">
-        <v>137.6325432146541</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>117.3308364518428</v>
+        <v>112.7522673007084</v>
       </c>
       <c r="Y27" t="n">
-        <v>117.2405470256697</v>
+        <v>112.6619778745353</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.38983143030265</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>78.80467234699319</v>
+        <v>74.22610319585877</v>
       </c>
       <c r="D28" t="n">
-        <v>60.17332426657771</v>
+        <v>55.59475511544328</v>
       </c>
       <c r="E28" t="n">
-        <v>57.99181389493452</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>56.9788992712966</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>79.54883060682411</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>73.78502375580493</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>67.00832617562364</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>4.917031365038127</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>63.23095143090401</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>109.9541580907068</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>139.5034406766468</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>197.8768806048562</v>
+        <v>193.7303023918432</v>
       </c>
       <c r="V28" t="n">
-        <v>163.6954945721934</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>172.4605583903255</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>114.7011541531717</v>
+        <v>132.6889374862681</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.1425046004601</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>249.1833897008817</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C29" t="n">
-        <v>231.7224398084087</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D29" t="n">
-        <v>221.1325896580841</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E29" t="n">
-        <v>222.7596269150321</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F29" t="n">
-        <v>247.7053025844817</v>
+        <v>269.5325285785008</v>
       </c>
       <c r="G29" t="n">
-        <v>259.1859330683053</v>
+        <v>277.9592203519244</v>
       </c>
       <c r="H29" t="n">
-        <v>205.9243501531683</v>
+        <v>202.1312849525565</v>
       </c>
       <c r="I29" t="n">
-        <v>76.92543760780703</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>16.3186659785508</v>
+        <v>12.52560077793905</v>
       </c>
       <c r="S29" t="n">
-        <v>49.84932642901563</v>
+        <v>68.48445830980211</v>
       </c>
       <c r="T29" t="n">
-        <v>89.54539760153247</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U29" t="n">
-        <v>117.7952009452376</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V29" t="n">
-        <v>194.201806507536</v>
+        <v>186.7846562555703</v>
       </c>
       <c r="W29" t="n">
-        <v>215.6905167548141</v>
+        <v>208.2733665028484</v>
       </c>
       <c r="X29" t="n">
-        <v>236.1806487158701</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.6874866934547</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.98273168726845</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C30" t="n">
-        <v>39.15804702571685</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D30" t="n">
-        <v>13.89461360203987</v>
+        <v>10.10154840142812</v>
       </c>
       <c r="E30" t="n">
-        <v>24.09462849280206</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>30.87819228840485</v>
+        <v>30.71556888927319</v>
       </c>
       <c r="T30" t="n">
-        <v>40.99398553759189</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U30" t="n">
-        <v>92.39093011837593</v>
+        <v>85.40577080453158</v>
       </c>
       <c r="V30" t="n">
-        <v>73.62984399219556</v>
+        <v>91.83298493486063</v>
       </c>
       <c r="W30" t="n">
-        <v>92.5242400036899</v>
+        <v>114.351465997709</v>
       </c>
       <c r="X30" t="n">
-        <v>72.22253324087859</v>
+        <v>64.80538298891284</v>
       </c>
       <c r="Y30" t="n">
-        <v>72.13224381470548</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.28152821933841</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C31" t="n">
-        <v>33.03003961645752</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D31" t="n">
-        <v>15.06502105561347</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E31" t="n">
-        <v>12.88351068397029</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F31" t="n">
-        <v>11.87059606033236</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G31" t="n">
-        <v>34.44052739585987</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H31" t="n">
-        <v>28.67672054484069</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.7429394145706</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S31" t="n">
-        <v>64.84585487974255</v>
+        <v>83.04899582240762</v>
       </c>
       <c r="T31" t="n">
-        <v>94.39513746568261</v>
+        <v>86.97798721371686</v>
       </c>
       <c r="U31" t="n">
-        <v>152.768577393892</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V31" t="n">
-        <v>92.96690016659829</v>
+        <v>114.7941261606174</v>
       </c>
       <c r="W31" t="n">
-        <v>127.3522551793613</v>
+        <v>145.9873870601478</v>
       </c>
       <c r="X31" t="n">
-        <v>92.15920342643827</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.03420138949591</v>
+        <v>81.24113618888416</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>249.1833897008817</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C32" t="n">
-        <v>206.1021486137779</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D32" t="n">
-        <v>221.1325896580841</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E32" t="n">
-        <v>248.3799181096629</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F32" t="n">
-        <v>247.7053025844818</v>
+        <v>269.5325285785008</v>
       </c>
       <c r="G32" t="n">
-        <v>256.1319943579053</v>
+        <v>274.3351353005704</v>
       </c>
       <c r="H32" t="n">
-        <v>199.6766636474883</v>
+        <v>198.5071999012025</v>
       </c>
       <c r="I32" t="n">
-        <v>76.92543760780705</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.33350666470645</v>
       </c>
       <c r="S32" t="n">
-        <v>75.46961762364649</v>
+        <v>71.67655242303471</v>
       </c>
       <c r="T32" t="n">
-        <v>89.5453976015325</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U32" t="n">
-        <v>117.7952009452376</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V32" t="n">
-        <v>194.201806507536</v>
+        <v>190.4087413069243</v>
       </c>
       <c r="W32" t="n">
-        <v>215.6905167548142</v>
+        <v>211.8974515542024</v>
       </c>
       <c r="X32" t="n">
-        <v>236.1806487158702</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.6874866934547</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>32.98273168726848</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C33" t="n">
-        <v>39.15804702571688</v>
+        <v>31.74089677375111</v>
       </c>
       <c r="D33" t="n">
-        <v>13.8946136020399</v>
+        <v>6.909454288195521</v>
       </c>
       <c r="E33" t="n">
-        <v>24.09462849280209</v>
+        <v>16.67747824083632</v>
       </c>
       <c r="F33" t="n">
-        <v>11.51876043078502</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G33" t="n">
-        <v>3.793065200611778</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>12.51242794660813</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T33" t="n">
-        <v>40.99398553759192</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U33" t="n">
-        <v>92.39093011837596</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V33" t="n">
-        <v>76.68378270259558</v>
+        <v>95.45706998621463</v>
       </c>
       <c r="W33" t="n">
-        <v>118.1445311983207</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X33" t="n">
-        <v>72.22253324087862</v>
+        <v>68.42946804026684</v>
       </c>
       <c r="Y33" t="n">
-        <v>46.51195262007467</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="34">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.28152821933844</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C34" t="n">
-        <v>33.69636913602898</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D34" t="n">
-        <v>15.0650210556135</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E34" t="n">
-        <v>12.88351068397031</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F34" t="n">
-        <v>11.87059606033239</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G34" t="n">
-        <v>34.4405273958599</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H34" t="n">
-        <v>28.67672054484072</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I34" t="n">
-        <v>21.90002296465943</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>43.74293941457063</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S34" t="n">
-        <v>90.4661460743734</v>
+        <v>86.67308087376162</v>
       </c>
       <c r="T34" t="n">
-        <v>68.77484627105181</v>
+        <v>87.40997815183826</v>
       </c>
       <c r="U34" t="n">
-        <v>127.1482861992612</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V34" t="n">
-        <v>92.96690016659832</v>
+        <v>114.7941261606174</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4061938897613</v>
+        <v>149.1794811733804</v>
       </c>
       <c r="X34" t="n">
-        <v>92.1592034264383</v>
+        <v>84.74205317447252</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.03420138949593</v>
+        <v>77.61705113753015</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>249.1833897008817</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C35" t="n">
-        <v>231.7224398084087</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D35" t="n">
-        <v>221.1325896580841</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3799181096629</v>
+        <v>244.5868529090511</v>
       </c>
       <c r="F35" t="n">
-        <v>273.3255937791126</v>
+        <v>265.9084435271468</v>
       </c>
       <c r="G35" t="n">
-        <v>281.7522855525362</v>
+        <v>277.9592203519244</v>
       </c>
       <c r="H35" t="n">
-        <v>205.9243501531683</v>
+        <v>198.5071999012025</v>
       </c>
       <c r="I35" t="n">
-        <v>76.92543760780705</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.31866597855083</v>
+        <v>9.33350666470645</v>
       </c>
       <c r="S35" t="n">
-        <v>49.84932642901565</v>
+        <v>68.05246737168071</v>
       </c>
       <c r="T35" t="n">
-        <v>63.92510640690167</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U35" t="n">
-        <v>92.17490975060682</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V35" t="n">
-        <v>171.6354540233052</v>
+        <v>190.4087413069243</v>
       </c>
       <c r="W35" t="n">
-        <v>215.6905167548142</v>
+        <v>211.8974515542024</v>
       </c>
       <c r="X35" t="n">
-        <v>236.1806487158702</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y35" t="n">
-        <v>252.6874866934547</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="36">
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.98273168726848</v>
+        <v>29.18966648665671</v>
       </c>
       <c r="C36" t="n">
-        <v>39.15804702571688</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D36" t="n">
-        <v>13.8946136020399</v>
+        <v>10.10154840142812</v>
       </c>
       <c r="E36" t="n">
-        <v>24.09462849280209</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F36" t="n">
-        <v>11.51876043078502</v>
+        <v>4.10161017881925</v>
       </c>
       <c r="G36" t="n">
-        <v>3.793065200611778</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>38.13271914123897</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T36" t="n">
-        <v>40.99398553759192</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U36" t="n">
-        <v>66.77063892374514</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V36" t="n">
-        <v>73.62984399219559</v>
+        <v>92.26497587298203</v>
       </c>
       <c r="W36" t="n">
-        <v>95.57817871408992</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X36" t="n">
-        <v>72.22253324087862</v>
+        <v>64.80538298891284</v>
       </c>
       <c r="Y36" t="n">
-        <v>72.1322438147055</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="37">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.28152821933844</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C37" t="n">
-        <v>33.69636913602898</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D37" t="n">
-        <v>15.0650210556135</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E37" t="n">
-        <v>12.88351068397031</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F37" t="n">
-        <v>11.87059606033239</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G37" t="n">
-        <v>34.4405273958599</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H37" t="n">
-        <v>6.11036806060989</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I37" t="n">
-        <v>21.90002296465943</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.1226482199398</v>
+        <v>36.32578916260486</v>
       </c>
       <c r="S37" t="n">
-        <v>64.84585487974257</v>
+        <v>83.04899582240762</v>
       </c>
       <c r="T37" t="n">
-        <v>94.39513746568264</v>
+        <v>87.40997815183826</v>
       </c>
       <c r="U37" t="n">
-        <v>127.1482861992612</v>
+        <v>148.9755121932803</v>
       </c>
       <c r="V37" t="n">
-        <v>118.5871913612291</v>
+        <v>114.7941261606174</v>
       </c>
       <c r="W37" t="n">
-        <v>152.9725463739921</v>
+        <v>149.1794811733804</v>
       </c>
       <c r="X37" t="n">
-        <v>92.1592034264383</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.03420138949593</v>
+        <v>77.61705113753015</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.5630985062509</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C38" t="n">
-        <v>206.1021486137779</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D38" t="n">
-        <v>195.5122984634533</v>
+        <v>217.3395244574723</v>
       </c>
       <c r="E38" t="n">
-        <v>225.8135656254321</v>
+        <v>240.9627678576971</v>
       </c>
       <c r="F38" t="n">
-        <v>273.3255937791126</v>
+        <v>265.9084435271468</v>
       </c>
       <c r="G38" t="n">
-        <v>281.7522855525362</v>
+        <v>274.7671262386918</v>
       </c>
       <c r="H38" t="n">
-        <v>205.9243501531683</v>
+        <v>202.1312849525565</v>
       </c>
       <c r="I38" t="n">
-        <v>76.92543760780705</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>16.31866597855083</v>
+        <v>12.52560077793905</v>
       </c>
       <c r="S38" t="n">
-        <v>75.46961762364649</v>
+        <v>71.67655242303471</v>
       </c>
       <c r="T38" t="n">
-        <v>89.5453976015325</v>
+        <v>82.12824734956672</v>
       </c>
       <c r="U38" t="n">
-        <v>117.7952009452376</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V38" t="n">
-        <v>194.201806507536</v>
+        <v>190.4087413069243</v>
       </c>
       <c r="W38" t="n">
-        <v>215.6905167548142</v>
+        <v>211.8974515542024</v>
       </c>
       <c r="X38" t="n">
-        <v>236.1806487158702</v>
+        <v>232.3875835152584</v>
       </c>
       <c r="Y38" t="n">
-        <v>252.6874866934547</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="39">
@@ -25467,19 +25467,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32.98273168726848</v>
+        <v>25.99757237342411</v>
       </c>
       <c r="C39" t="n">
-        <v>39.15804702571688</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D39" t="n">
-        <v>13.8946136020399</v>
+        <v>6.477463350074125</v>
       </c>
       <c r="E39" t="n">
-        <v>16.84010163996805</v>
+        <v>16.67747824083632</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25518,25 +25518,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>12.51242794660813</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T39" t="n">
-        <v>40.99398553759192</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U39" t="n">
-        <v>66.77063892374514</v>
+        <v>88.59786491776418</v>
       </c>
       <c r="V39" t="n">
-        <v>99.25013518682641</v>
+        <v>95.45706998621463</v>
       </c>
       <c r="W39" t="n">
-        <v>118.1445311983207</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X39" t="n">
-        <v>72.22253324087862</v>
+        <v>68.42946804026684</v>
       </c>
       <c r="Y39" t="n">
-        <v>72.1322438147055</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.28152821933844</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C40" t="n">
-        <v>33.69636913602898</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0650210556135</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E40" t="n">
-        <v>12.88351068397031</v>
+        <v>9.090445483358536</v>
       </c>
       <c r="F40" t="n">
-        <v>11.87059606033239</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G40" t="n">
-        <v>34.4405273958599</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H40" t="n">
-        <v>28.67672054484072</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I40" t="n">
-        <v>21.90002296465943</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.74293941457063</v>
+        <v>36.75778010072625</v>
       </c>
       <c r="S40" t="n">
-        <v>90.4661460743734</v>
+        <v>86.67308087376162</v>
       </c>
       <c r="T40" t="n">
-        <v>71.8287849814518</v>
+        <v>90.60207226507086</v>
       </c>
       <c r="U40" t="n">
-        <v>127.1482861992612</v>
+        <v>148.9755121932803</v>
       </c>
       <c r="V40" t="n">
-        <v>92.96690016659832</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W40" t="n">
-        <v>127.3522551793613</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X40" t="n">
-        <v>92.1592034264383</v>
+        <v>88.36613822582652</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.03420138949593</v>
+        <v>77.61705113753015</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>270.4983974269841</v>
+        <v>263.6972690608951</v>
       </c>
       <c r="C41" t="n">
-        <v>227.4171563398803</v>
+        <v>243.0442250551895</v>
       </c>
       <c r="D41" t="n">
-        <v>242.4475973841865</v>
+        <v>235.6464690180975</v>
       </c>
       <c r="E41" t="n">
-        <v>244.0746346411345</v>
+        <v>262.8937974696763</v>
       </c>
       <c r="F41" t="n">
-        <v>269.0203103105841</v>
+        <v>284.215388087772</v>
       </c>
       <c r="G41" t="n">
-        <v>303.0672932786386</v>
+        <v>296.2661649125496</v>
       </c>
       <c r="H41" t="n">
-        <v>227.2393578792707</v>
+        <v>220.4382295131817</v>
       </c>
       <c r="I41" t="n">
-        <v>98.24044533390945</v>
+        <v>91.43931696782043</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.63367370465322</v>
+        <v>30.8325453385642</v>
       </c>
       <c r="S41" t="n">
-        <v>96.78462534974888</v>
+        <v>89.98349698365986</v>
       </c>
       <c r="T41" t="n">
-        <v>110.8604053276349</v>
+        <v>104.0592769615459</v>
       </c>
       <c r="U41" t="n">
-        <v>116.5438561871092</v>
+        <v>132.309080305251</v>
       </c>
       <c r="V41" t="n">
-        <v>215.5168142336385</v>
+        <v>208.7156858675494</v>
       </c>
       <c r="W41" t="n">
-        <v>237.0055244809166</v>
+        <v>230.2043961148275</v>
       </c>
       <c r="X41" t="n">
-        <v>257.4956564419726</v>
+        <v>247.0704430245296</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.0024944195571</v>
+        <v>263.5772810021141</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.29773941337088</v>
+        <v>47.49661104728186</v>
       </c>
       <c r="C42" t="n">
-        <v>60.47305475181928</v>
+        <v>53.67192638573026</v>
       </c>
       <c r="D42" t="n">
-        <v>35.20962132814229</v>
+        <v>28.40849296205327</v>
       </c>
       <c r="E42" t="n">
-        <v>45.40963621890448</v>
+        <v>34.98442280146147</v>
       </c>
       <c r="F42" t="n">
-        <v>32.83376815688742</v>
+        <v>22.8405456775658</v>
       </c>
       <c r="G42" t="n">
-        <v>25.10807292671417</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>59.44772686734136</v>
+        <v>52.64659850125234</v>
       </c>
       <c r="T42" t="n">
-        <v>87.92928445832514</v>
+        <v>77.50407104088214</v>
       </c>
       <c r="U42" t="n">
-        <v>88.08564664984752</v>
+        <v>106.9048094783893</v>
       </c>
       <c r="V42" t="n">
-        <v>94.94485171829797</v>
+        <v>110.1399294954858</v>
       </c>
       <c r="W42" t="n">
-        <v>116.8931864401923</v>
+        <v>132.6584105583341</v>
       </c>
       <c r="X42" t="n">
-        <v>67.91724977235017</v>
+        <v>86.736412600892</v>
       </c>
       <c r="Y42" t="n">
-        <v>93.4472515408079</v>
+        <v>86.64612317471888</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.59653594544083</v>
+        <v>60.79540757935182</v>
       </c>
       <c r="C43" t="n">
-        <v>55.01137686213137</v>
+        <v>48.21024849604235</v>
       </c>
       <c r="D43" t="n">
-        <v>36.38002878171589</v>
+        <v>29.57890041562688</v>
       </c>
       <c r="E43" t="n">
-        <v>34.19851841007271</v>
+        <v>27.39739004398369</v>
       </c>
       <c r="F43" t="n">
-        <v>33.18560378643478</v>
+        <v>26.38447542034577</v>
       </c>
       <c r="G43" t="n">
-        <v>55.7555351219623</v>
+        <v>48.95440675587328</v>
       </c>
       <c r="H43" t="n">
-        <v>49.99172827094311</v>
+        <v>43.1905999048541</v>
       </c>
       <c r="I43" t="n">
-        <v>43.21503069076182</v>
+        <v>36.4139023246728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.05794714067302</v>
+        <v>58.256818774584</v>
       </c>
       <c r="S43" t="n">
-        <v>86.16086260584495</v>
+        <v>104.9800254343868</v>
       </c>
       <c r="T43" t="n">
-        <v>93.14379270755421</v>
+        <v>108.909016825696</v>
       </c>
       <c r="U43" t="n">
-        <v>148.4632939253636</v>
+        <v>163.6583717025514</v>
       </c>
       <c r="V43" t="n">
-        <v>139.9021990873316</v>
+        <v>129.4769856698885</v>
       </c>
       <c r="W43" t="n">
-        <v>148.6672629054637</v>
+        <v>163.8623406826515</v>
       </c>
       <c r="X43" t="n">
-        <v>113.4742111525407</v>
+        <v>103.4809886732191</v>
       </c>
       <c r="Y43" t="n">
-        <v>106.3492091155983</v>
+        <v>99.54808074950931</v>
       </c>
     </row>
     <row r="44">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>441095.7818263544</v>
+        <v>448213.0714713747</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>441095.7818263544</v>
+        <v>448213.0714713747</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>459751.5305653121</v>
+        <v>450851.9962054089</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>459751.5305653119</v>
+        <v>450851.9962054088</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>458005.7791468134</v>
+        <v>443734.7065603889</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>536512.7209922246</v>
+        <v>526988.9418590129</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>536512.7209922246</v>
+        <v>526988.9418590128</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>536512.7209922245</v>
+        <v>526988.9418590128</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>536512.7209922246</v>
+        <v>526988.9418590128</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500025.2644665279</v>
+        <v>495650.7480212436</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491123</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="D2" t="n">
         <v>798794.4302491122</v>
@@ -26323,37 +26323,37 @@
         <v>263721.0620066094</v>
       </c>
       <c r="F2" t="n">
-        <v>419675.6992097231</v>
+        <v>428629.7087631354</v>
       </c>
       <c r="G2" t="n">
-        <v>419675.6992097231</v>
+        <v>428629.7087631354</v>
       </c>
       <c r="H2" t="n">
-        <v>433829.1648405204</v>
+        <v>430631.7688813343</v>
       </c>
       <c r="I2" t="n">
-        <v>433829.1648405203</v>
+        <v>430631.7688813342</v>
       </c>
       <c r="J2" t="n">
-        <v>431632.8969269258</v>
+        <v>421677.7593279224</v>
       </c>
       <c r="K2" t="n">
-        <v>530399.6947324427</v>
+        <v>526416.958574578</v>
       </c>
       <c r="L2" t="n">
-        <v>530399.6947324428</v>
+        <v>526416.958574578</v>
       </c>
       <c r="M2" t="n">
-        <v>530399.6947324428</v>
+        <v>526416.9585745779</v>
       </c>
       <c r="N2" t="n">
-        <v>530399.694732443</v>
+        <v>526416.958574578</v>
       </c>
       <c r="O2" t="n">
-        <v>484496.1203936636</v>
+        <v>486991.4889077076</v>
       </c>
       <c r="P2" t="n">
-        <v>209639.4407863205</v>
+        <v>209639.4407863204</v>
       </c>
     </row>
     <row r="3">
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>17815.59346070626</v>
+        <v>17815.59346070628</v>
       </c>
       <c r="F3" t="n">
-        <v>53701.71282042578</v>
+        <v>56871.75063263194</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6912.585146932151</v>
+        <v>977.8107636207699</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>17052.00618088191</v>
+        <v>14645.55564850012</v>
       </c>
       <c r="K3" t="n">
-        <v>89788.35538919717</v>
+        <v>95229.25808206838</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>138639.556508057</v>
+        <v>139166.9017221033</v>
       </c>
       <c r="F4" t="n">
-        <v>229935.7331211011</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="G4" t="n">
-        <v>229935.733121101</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="H4" t="n">
-        <v>237327.1821688254</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="I4" t="n">
-        <v>237327.1821688254</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="J4" t="n">
-        <v>236041.4822568185</v>
+        <v>231513.7645804306</v>
       </c>
       <c r="K4" t="n">
-        <v>293859.7759457301</v>
+        <v>292828.3147869607</v>
       </c>
       <c r="L4" t="n">
-        <v>293859.7759457301</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="M4" t="n">
-        <v>293859.7759457301</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="N4" t="n">
-        <v>293859.7759457301</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="O4" t="n">
-        <v>266987.7258088359</v>
+        <v>269748.5609155123</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>1872.173908310146</v>
       </c>
       <c r="F5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="G5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="H5" t="n">
-        <v>9073.199231819168</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="I5" t="n">
-        <v>9073.199231819168</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="J5" t="n">
-        <v>8992.956708034728</v>
+        <v>7735.829898307937</v>
       </c>
       <c r="K5" t="n">
-        <v>12785.16665067728</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="L5" t="n">
-        <v>12785.16665067728</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="M5" t="n">
-        <v>12785.16665067728</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="N5" t="n">
-        <v>12785.16665067728</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="O5" t="n">
-        <v>10993.23526615158</v>
+        <v>10227.62999324908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>313294.1849141934</v>
+        <v>312766.8397001472</v>
       </c>
       <c r="C6" t="n">
-        <v>313294.1849141934</v>
+        <v>312766.8397001474</v>
       </c>
       <c r="D6" t="n">
-        <v>313294.1849141934</v>
+        <v>312766.839700147</v>
       </c>
       <c r="E6" t="n">
-        <v>105393.738129536</v>
+        <v>104866.3929154896</v>
       </c>
       <c r="F6" t="n">
-        <v>128522.7677410106</v>
+        <v>128204.570628373</v>
       </c>
       <c r="G6" t="n">
-        <v>182224.4805614364</v>
+        <v>185076.3212610049</v>
       </c>
       <c r="H6" t="n">
-        <v>180516.1982929437</v>
+        <v>184829.5399991775</v>
       </c>
       <c r="I6" t="n">
-        <v>187428.7834398758</v>
+        <v>185807.3507627982</v>
       </c>
       <c r="J6" t="n">
-        <v>169546.4517811906</v>
+        <v>167782.6092006838</v>
       </c>
       <c r="K6" t="n">
-        <v>133966.3967468382</v>
+        <v>126592.7091900327</v>
       </c>
       <c r="L6" t="n">
-        <v>223754.7521360355</v>
+        <v>221821.9672721012</v>
       </c>
       <c r="M6" t="n">
-        <v>223754.7521360355</v>
+        <v>221821.9672721011</v>
       </c>
       <c r="N6" t="n">
-        <v>223754.7521360356</v>
+        <v>221821.9672721012</v>
       </c>
       <c r="O6" t="n">
-        <v>206515.1593186761</v>
+        <v>207015.2979989462</v>
       </c>
       <c r="P6" t="n">
-        <v>102659.3804689204</v>
+        <v>102132.035254874</v>
       </c>
     </row>
   </sheetData>
@@ -26695,34 +26695,34 @@
         <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
+        <v>93.35918011667277</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.35918011667277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.35918011667277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.35918011667277</v>
+      </c>
+      <c r="J2" t="n">
         <v>89.39663285141508</v>
       </c>
-      <c r="G2" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="H2" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="I2" t="n">
-        <v>89.39663285141508</v>
-      </c>
-      <c r="J2" t="n">
-        <v>88.44214875163465</v>
-      </c>
       <c r="K2" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="L2" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="M2" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="N2" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.26949182588282</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.31500772610239</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="K2" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.26949182588282</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
-        <v>67.12714102553223</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21.31500772610239</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="P2" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
     </row>
   </sheetData>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28530,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28767,28 +28767,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29004,28 +29004,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29241,28 +29241,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y26" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y27" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="28">
@@ -29430,31 +29430,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="C28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="D28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="E28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="F28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="G28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="H28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="I28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -29478,28 +29478,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="S28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="T28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="U28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="V28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="W28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="X28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="Y28" t="n">
-        <v>88.44214875163465</v>
+        <v>89.39663285141508</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29557,28 +29557,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y29" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="30">
@@ -29588,22 +29588,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -29639,25 +29639,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y30" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="31">
@@ -29667,28 +29667,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J31" t="n">
         <v>93.35918011667277</v>
@@ -29715,28 +29715,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29794,28 +29794,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y32" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="33">
@@ -29825,22 +29825,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -29876,25 +29876,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="34">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29952,28 +29952,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="36">
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -30113,25 +30113,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y36" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="37">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30189,28 +30189,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -30350,25 +30350,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y39" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="40">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="C40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="D40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="E40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="F40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="G40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="I40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -30426,28 +30426,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="S40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="T40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="U40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="V40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="W40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="X40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.5504519625989</v>
+        <v>137.3435171632106</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -30587,25 +30587,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y42" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="43">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -30663,28 +30663,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.2354442364965</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M20" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L21" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M22" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O22" t="n">
-        <v>24.58512791403967</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N23" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O23" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O25" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="L26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N27" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O27" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P27" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M28" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O28" t="n">
-        <v>24.58512791403967</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="O29" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P29" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M30" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P30" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O31" t="n">
-        <v>24.58512791403967</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L32" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O32" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N33" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M34" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O34" t="n">
-        <v>24.58512791403967</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L35" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M35" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N35" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="O36" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P36" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M37" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O37" t="n">
-        <v>24.58512791403967</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="N38" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O38" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P38" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N39" t="n">
-        <v>24.58512791403969</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M40" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O40" t="n">
-        <v>24.58512791403967</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>3.477657372511408</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O41" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="P41" t="n">
-        <v>24.58512791403969</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N42" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O42" t="n">
-        <v>25.62029119463083</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463084</v>
+        <v>3.624085051353994</v>
       </c>
       <c r="O43" t="n">
-        <v>24.58512791403967</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1792743.947440597</v>
+        <v>1738631.470810837</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065032</v>
+        <v>5095622.684065031</v>
       </c>
     </row>
     <row r="8">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T23" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="U23" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="U24" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>27.59002526031614</v>
@@ -2462,7 +2462,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="X24" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>24.30129424928645</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,67 +2633,67 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="C27" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="U27" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="V27" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>27.59002526031614</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="30">
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>20.33874698402875</v>
       </c>
       <c r="V31" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V32" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W32" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,64 +3116,64 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F33" t="n">
+      <c r="V33" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="W33" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
+      <c r="X33" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T33" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C35" t="n">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D35" t="n">
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="E35" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,61 +3347,61 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="T36" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D36" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="U36" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>24.30129424928645</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="V37" t="n">
         <v>27.59002526031614</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U39" t="n">
         <v>27.59002526031614</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,64 +3739,64 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="Y41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,49 +3833,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>27.59002526031614</v>
@@ -3951,7 +3951,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>27.59002526031614</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="X45" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,56 +4143,56 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="S46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F46" t="n">
+      <c r="T46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G46" t="n">
+      <c r="U46" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I23" t="n">
         <v>2.207202020825291</v>
@@ -5992,19 +5992,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L23" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M23" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N23" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O23" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P23" t="n">
         <v>110.3601010412646</v>
@@ -6016,25 +6016,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S23" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T23" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U23" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V23" t="n">
         <v>82.49138865710684</v>
       </c>
-      <c r="T23" t="n">
-        <v>57.94462678914073</v>
-      </c>
-      <c r="U23" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="V23" t="n">
-        <v>30.07591440498301</v>
-      </c>
       <c r="W23" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="24">
@@ -6077,10 +6077,10 @@
         <v>28.41772601812563</v>
       </c>
       <c r="M24" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O24" t="n">
         <v>83.04597603355158</v>
@@ -6095,19 +6095,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T24" t="n">
-        <v>82.49138865710684</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U24" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V24" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W24" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X24" t="n">
         <v>2.207202020825291</v>
@@ -6147,25 +6147,25 @@
         <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q25" t="n">
         <v>110.3601010412646</v>
@@ -6174,22 +6174,22 @@
         <v>85.81333917329844</v>
       </c>
       <c r="S25" t="n">
-        <v>85.81333917329844</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T25" t="n">
-        <v>85.81333917329844</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U25" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V25" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W25" t="n">
-        <v>57.94462678914073</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X25" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y25" t="n">
         <v>2.207202020825291</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="C26" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="D26" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="E26" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="F26" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="G26" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="C26" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="D26" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="E26" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="F26" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I26" t="n">
         <v>2.207202020825291</v>
@@ -6250,25 +6250,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X26" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y26" t="n">
         <v>82.49138865710684</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C27" t="n">
         <v>2.207202020825291</v>
@@ -6314,7 +6314,7 @@
         <v>2.207202020825291</v>
       </c>
       <c r="M27" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N27" t="n">
         <v>28.41772601812563</v>
@@ -6332,25 +6332,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T27" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U27" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V27" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W27" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X27" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y27" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G28" t="n">
         <v>2.207202020825291</v>
@@ -6423,13 +6423,13 @@
         <v>26.7539638887914</v>
       </c>
       <c r="W28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L29" t="n">
         <v>28.41772601812563</v>
       </c>
       <c r="M29" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N29" t="n">
         <v>55.73185102583861</v>
@@ -6499,13 +6499,13 @@
         <v>82.49138865710684</v>
       </c>
       <c r="V29" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="W29" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="W29" t="n">
-        <v>26.7539638887914</v>
-      </c>
       <c r="X29" t="n">
-        <v>26.7539638887914</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y29" t="n">
         <v>26.7539638887914</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D30" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F30" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G30" t="n">
         <v>2.207202020825291</v>
@@ -6554,7 +6554,7 @@
         <v>56.83545203625125</v>
       </c>
       <c r="N30" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O30" t="n">
         <v>83.04597603355158</v>
@@ -6569,25 +6569,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T30" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U30" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V30" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W30" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X30" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.207202020825291</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.7539638887914</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="C31" t="n">
-        <v>26.7539638887914</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="J31" t="n">
         <v>2.207202020825291</v>
@@ -6648,25 +6648,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S31" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T31" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="U31" t="n">
-        <v>82.49138865710684</v>
+        <v>61.94719978435052</v>
       </c>
       <c r="V31" t="n">
-        <v>54.62267627294912</v>
+        <v>34.07848740019281</v>
       </c>
       <c r="W31" t="n">
-        <v>54.62267627294912</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="X31" t="n">
-        <v>26.7539638887914</v>
+        <v>6.209775016035087</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.7539638887914</v>
+        <v>6.209775016035087</v>
       </c>
     </row>
     <row r="32">
@@ -6706,16 +6706,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M32" t="n">
         <v>29.52132702853827</v>
       </c>
-      <c r="M32" t="n">
-        <v>56.83545203625125</v>
-      </c>
       <c r="N32" t="n">
-        <v>84.14957704396423</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O32" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
         <v>110.3601010412646</v>
@@ -6727,22 +6727,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T32" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U32" t="n">
-        <v>110.3601010412646</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V32" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W32" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X32" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y32" t="n">
         <v>2.207202020825291</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C33" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D33" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E33" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
         <v>2.207202020825291</v>
@@ -6782,22 +6782,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L33" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M33" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N33" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O33" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P33" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q33" t="n">
         <v>110.3601010412646</v>
@@ -6806,25 +6806,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="T33" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U33" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="T33" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="U33" t="n">
-        <v>54.62267627294912</v>
       </c>
       <c r="V33" t="n">
         <v>54.62267627294912</v>
       </c>
       <c r="W33" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X33" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y33" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
         <v>2.207202020825291</v>
@@ -6885,25 +6885,25 @@
         <v>82.49138865710684</v>
       </c>
       <c r="S34" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="T34" t="n">
+        <v>82.49138865710684</v>
+      </c>
+      <c r="U34" t="n">
         <v>54.62267627294912</v>
       </c>
-      <c r="T34" t="n">
-        <v>26.7539638887914</v>
-      </c>
-      <c r="U34" t="n">
-        <v>26.7539638887914</v>
-      </c>
       <c r="V34" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W34" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X34" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C35" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D35" t="n">
-        <v>26.7539638887914</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E35" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F35" t="n">
         <v>2.207202020825291</v>
@@ -6943,16 +6943,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L35" t="n">
-        <v>2.207202020825291</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M35" t="n">
-        <v>28.41772601812563</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N35" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P35" t="n">
         <v>110.3601010412646</v>
@@ -6961,28 +6961,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W35" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X35" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C36" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D36" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E36" t="n">
         <v>2.207202020825291</v>
@@ -7025,13 +7025,13 @@
         <v>56.83545203625125</v>
       </c>
       <c r="M36" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N36" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O36" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
         <v>110.3601010412646</v>
@@ -7043,25 +7043,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T36" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U36" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V36" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W36" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X36" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="37">
@@ -7119,13 +7119,13 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R37" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S37" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T37" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U37" t="n">
         <v>57.94462678914073</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C38" t="n">
-        <v>85.81333917329844</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D38" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E38" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F38" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G38" t="n">
         <v>2.207202020825291</v>
@@ -7177,19 +7177,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M38" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N38" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O38" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P38" t="n">
         <v>110.3601010412646</v>
@@ -7201,25 +7201,25 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C39" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D39" t="n">
         <v>2.207202020825291</v>
@@ -7256,22 +7256,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L39" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M39" t="n">
-        <v>2.207202020825291</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N39" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O39" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P39" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q39" t="n">
         <v>110.3601010412646</v>
@@ -7280,22 +7280,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T39" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W39" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X39" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y39" t="n">
         <v>26.7539638887914</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E40" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F40" t="n">
         <v>2.207202020825291</v>
@@ -7332,25 +7332,25 @@
         <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q40" t="n">
         <v>110.3601010412646</v>
@@ -7362,22 +7362,22 @@
         <v>82.49138865710684</v>
       </c>
       <c r="T40" t="n">
-        <v>82.49138865710684</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U40" t="n">
-        <v>82.49138865710684</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V40" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W40" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X40" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.49138865710684</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C41" t="n">
         <v>30.07591440498301</v>
@@ -7396,10 +7396,10 @@
         <v>30.07591440498301</v>
       </c>
       <c r="E41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F41" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G41" t="n">
         <v>2.207202020825291</v>
@@ -7444,16 +7444,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V41" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W41" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X41" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y41" t="n">
         <v>54.62267627294912</v>
@@ -7469,22 +7469,22 @@
         <v>54.62267627294912</v>
       </c>
       <c r="C42" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D42" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E42" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F42" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G42" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H42" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I42" t="n">
         <v>2.207202020825291</v>
@@ -7493,22 +7493,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L42" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M42" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N42" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O42" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q42" t="n">
         <v>110.3601010412646</v>
@@ -7517,10 +7517,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="S42" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T42" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U42" t="n">
         <v>82.49138865710684</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="J43" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K43" t="n">
-        <v>2.207202020825291</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L43" t="n">
-        <v>29.52132702853827</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M43" t="n">
-        <v>56.83545203625125</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N43" t="n">
-        <v>84.14957704396423</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O43" t="n">
-        <v>108.4888536788635</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P43" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q43" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R43" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S43" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="T43" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="U43" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="V43" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="W43" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="X43" t="n">
         <v>30.07591440498301</v>
       </c>
-      <c r="T43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="W43" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="X43" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="Y43" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H44" t="n">
         <v>2.207202020825291</v>
@@ -7660,10 +7660,10 @@
         <v>84.14957704396423</v>
       </c>
       <c r="N44" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412646</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P44" t="n">
         <v>110.3601010412646</v>
@@ -7678,13 +7678,13 @@
         <v>82.49138865710684</v>
       </c>
       <c r="T44" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U44" t="n">
         <v>54.62267627294912</v>
       </c>
       <c r="V44" t="n">
-        <v>54.62267627294912</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W44" t="n">
         <v>26.7539638887914</v>
@@ -7693,7 +7693,7 @@
         <v>26.7539638887914</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H45" t="n">
         <v>2.207202020825291</v>
@@ -7733,46 +7733,46 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L45" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="N45" t="n">
         <v>28.41772601812563</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>55.73185102583861</v>
       </c>
-      <c r="N45" t="n">
-        <v>55.73185102583861</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>83.04597603355158</v>
-      </c>
-      <c r="P45" t="n">
-        <v>110.3601010412646</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U45" t="n">
         <v>82.49138865710684</v>
       </c>
       <c r="V45" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W45" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.207202020825291</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C46" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D46" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E46" t="n">
-        <v>57.94462678914073</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F46" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G46" t="n">
         <v>2.207202020825291</v>
@@ -7809,19 +7809,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P46" t="n">
         <v>110.3601010412646</v>
@@ -7830,28 +7830,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R46" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S46" t="n">
-        <v>110.3601010412646</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T46" t="n">
-        <v>110.3601010412646</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U46" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V46" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W46" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X46" t="n">
-        <v>110.3601010412646</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y46" t="n">
-        <v>85.81333917329844</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L23" t="n">
-        <v>262.2416917349371</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9725,13 +9725,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
         <v>158.9317373436494</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -9962,10 +9962,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N27" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>170.1862697047606</v>
@@ -10114,16 +10114,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L29" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>257.6882366820029</v>
@@ -10202,10 +10202,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O30" t="n">
-        <v>169.0715212093943</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -10354,19 +10354,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O32" t="n">
-        <v>256.5734881866366</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M33" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>167.5717993463377</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,10 +10591,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8215099922226</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
         <v>257.0030888569071</v>
@@ -10603,7 +10603,7 @@
         <v>257.6882366820029</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10673,16 +10673,16 @@
         <v>166.1444050401903</v>
       </c>
       <c r="M36" t="n">
-        <v>169.7240591823345</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N36" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M38" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O38" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>257.7082725202193</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L42" t="n">
         <v>166.1444050401903</v>
       </c>
       <c r="M42" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,13 +11308,13 @@
         <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
-        <v>255.8883403615407</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>257.7082725202193</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>165.029656544824</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O45" t="n">
         <v>170.1862697047606</v>
@@ -11396,7 +11396,7 @@
         <v>161.5644326746464</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -24226,7 +24226,7 @@
         <v>239.316967963124</v>
       </c>
       <c r="I23" t="n">
-        <v>110.3180554177628</v>
+        <v>86.01676116847632</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>49.71128378850655</v>
       </c>
       <c r="S23" t="n">
-        <v>81.27221017328607</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T23" t="n">
-        <v>98.63672116220178</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U23" t="n">
-        <v>123.5977934948772</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V23" t="n">
-        <v>227.5944243174918</v>
+        <v>200.0043990571756</v>
       </c>
       <c r="W23" t="n">
-        <v>221.4931093044537</v>
+        <v>221.4931093044538</v>
       </c>
       <c r="X23" t="n">
-        <v>269.5732665258259</v>
+        <v>241.9832412655098</v>
       </c>
       <c r="Y23" t="n">
         <v>286.0801045034104</v>
@@ -24335,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.93531169087855</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T24" t="n">
-        <v>100.0068945421785</v>
+        <v>75.70560029289202</v>
       </c>
       <c r="U24" t="n">
-        <v>125.7835479283317</v>
+        <v>98.19352266801555</v>
       </c>
       <c r="V24" t="n">
         <v>105.052727736466</v>
@@ -24350,7 +24350,7 @@
         <v>123.9471237479603</v>
       </c>
       <c r="X24" t="n">
-        <v>81.3138568015479</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y24" t="n">
         <v>105.5248616246612</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.8342629752399</v>
+        <v>52.83426297523989</v>
       </c>
       <c r="S25" t="n">
-        <v>123.8587638843291</v>
+        <v>96.26873862401298</v>
       </c>
       <c r="T25" t="n">
-        <v>127.7877552756384</v>
+        <v>100.1977300153222</v>
       </c>
       <c r="U25" t="n">
-        <v>158.5711699435316</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V25" t="n">
         <v>151.9798091711849</v>
@@ -24432,7 +24432,7 @@
         <v>97.96179597607788</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.83679393913552</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>265.7471835517493</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>240.9851145199814</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
         <v>292.5337372208467</v>
@@ -24457,13 +24457,13 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>298.3160794034038</v>
+        <v>298.3160794034039</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>222.488144004036</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0792567189908</v>
+        <v>96.77796246970438</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>32.88245982941847</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
@@ -24511,7 +24511,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.2512805443224</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.54652553813612</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>55.72184087658452</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
@@ -24572,16 +24572,16 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>54.69651299210661</v>
       </c>
       <c r="T27" t="n">
         <v>83.17807058309039</v>
       </c>
       <c r="U27" t="n">
-        <v>112.2434549802733</v>
+        <v>108.9547239692436</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>119.1026600487237</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -24615,7 +24615,7 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>54.29305225775723</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
         <v>72.8305396560245</v>
@@ -24651,7 +24651,7 @@
         <v>60.30673326543827</v>
       </c>
       <c r="S28" t="n">
-        <v>107.0299399252411</v>
+        <v>107.029939925241</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
@@ -24663,7 +24663,7 @@
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>172.8250712358895</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24739,7 +24739,7 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>210.7656003584037</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
         <v>232.2543106056818</v>
@@ -24748,7 +24748,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.8413058046385</v>
+        <v>269.2512805443224</v>
       </c>
     </row>
     <row r="30">
@@ -24761,19 +24761,19 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>55.72184087658452</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>40.65842234366973</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>23.64559006250911</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24809,19 +24809,19 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
-        <v>82.28653825242274</v>
+        <v>54.69651299210661</v>
       </c>
       <c r="T30" t="n">
-        <v>86.46680159412008</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>108.9547239692436</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>115.8139290376941</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>134.7083250491884</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -24843,7 +24843,7 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>34.91754591751083</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
@@ -24861,7 +24861,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>107.0299399252411</v>
       </c>
       <c r="T31" t="n">
-        <v>110.9589313165503</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>176.5836495210471</v>
       </c>
       <c r="V31" t="n">
         <v>135.1509852120968</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1263654851759</v>
+        <v>169.5363402248598</v>
       </c>
       <c r="X31" t="n">
-        <v>108.722997277306</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
         <v>129.1880205006797</v>
@@ -24928,7 +24928,7 @@
         <v>277.9723188876007</v>
       </c>
       <c r="F32" t="n">
-        <v>302.9179945570504</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G32" t="n">
         <v>311.344686330474</v>
@@ -24937,7 +24937,7 @@
         <v>235.5167509311061</v>
       </c>
       <c r="I32" t="n">
-        <v>106.5178383857449</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.91106675648864</v>
+        <v>45.91106675648859</v>
       </c>
       <c r="S32" t="n">
-        <v>105.0620184015843</v>
+        <v>77.47199314126811</v>
       </c>
       <c r="T32" t="n">
-        <v>119.1377983794703</v>
+        <v>91.54777311915413</v>
       </c>
       <c r="U32" t="n">
-        <v>147.3876017231755</v>
+        <v>119.7975764628593</v>
       </c>
       <c r="V32" t="n">
-        <v>196.2041820251577</v>
+        <v>199.4929130361874</v>
       </c>
       <c r="W32" t="n">
-        <v>220.9816232834655</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X32" t="n">
-        <v>238.1830242334919</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y32" t="n">
-        <v>254.6898622110764</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.57513246520629</v>
+        <v>62.57513246520625</v>
       </c>
       <c r="C33" t="n">
-        <v>68.75044780365469</v>
+        <v>68.75044780365465</v>
       </c>
       <c r="D33" t="n">
-        <v>43.48701437997771</v>
+        <v>43.48701437997767</v>
       </c>
       <c r="E33" t="n">
-        <v>26.09700401042376</v>
+        <v>53.68702927073986</v>
       </c>
       <c r="F33" t="n">
-        <v>16.80986695943638</v>
+        <v>41.11116120872279</v>
       </c>
       <c r="G33" t="n">
-        <v>33.38546597854959</v>
+        <v>33.38546597854955</v>
       </c>
       <c r="H33" t="n">
-        <v>8.277393051835418</v>
+        <v>8.277393051835375</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,22 +25046,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>40.13509465886064</v>
+        <v>67.72511991917673</v>
       </c>
       <c r="T33" t="n">
-        <v>68.61665224984442</v>
+        <v>96.20667751016052</v>
       </c>
       <c r="U33" t="n">
-        <v>121.9833308963138</v>
+        <v>94.39330563599759</v>
       </c>
       <c r="V33" t="n">
-        <v>128.8425359647642</v>
+        <v>101.252510704448</v>
       </c>
       <c r="W33" t="n">
-        <v>147.7369319762586</v>
+        <v>123.4356377269721</v>
       </c>
       <c r="X33" t="n">
-        <v>101.8149340188164</v>
+        <v>74.22490875850025</v>
       </c>
       <c r="Y33" t="n">
         <v>101.7246445926433</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.87392899727625</v>
+        <v>75.87392899727621</v>
       </c>
       <c r="C34" t="n">
-        <v>63.28876991396679</v>
+        <v>63.28876991396675</v>
       </c>
       <c r="D34" t="n">
-        <v>44.65742183355131</v>
+        <v>44.65742183355127</v>
       </c>
       <c r="E34" t="n">
-        <v>42.47591146190813</v>
+        <v>42.47591146190808</v>
       </c>
       <c r="F34" t="n">
-        <v>41.4629968382702</v>
+        <v>41.46299683827016</v>
       </c>
       <c r="G34" t="n">
-        <v>64.03292817379771</v>
+        <v>64.03292817379767</v>
       </c>
       <c r="H34" t="n">
-        <v>58.26912132277853</v>
+        <v>58.26912132277849</v>
       </c>
       <c r="I34" t="n">
-        <v>27.19112949331078</v>
+        <v>51.4924237425972</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.7453149321923</v>
+        <v>45.74531493219226</v>
       </c>
       <c r="S34" t="n">
-        <v>92.46852159199507</v>
+        <v>120.0585468523112</v>
       </c>
       <c r="T34" t="n">
-        <v>96.39751298330431</v>
+        <v>123.9875382436204</v>
       </c>
       <c r="U34" t="n">
-        <v>182.3609781718299</v>
+        <v>154.7709529115137</v>
       </c>
       <c r="V34" t="n">
-        <v>148.179592139167</v>
+        <v>123.8782978898805</v>
       </c>
       <c r="W34" t="n">
-        <v>182.56494715193</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X34" t="n">
         <v>121.7516042043761</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6266021674337</v>
+        <v>87.03657690711756</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>251.1857652185034</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7248153260304</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D35" t="n">
-        <v>223.1349651757058</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E35" t="n">
-        <v>253.6710246383143</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F35" t="n">
-        <v>302.9179945570504</v>
+        <v>275.3279692967342</v>
       </c>
       <c r="G35" t="n">
         <v>311.344686330474</v>
@@ -25174,7 +25174,7 @@
         <v>235.5167509311061</v>
       </c>
       <c r="I35" t="n">
-        <v>106.5178383857449</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.91106675648864</v>
+        <v>21.60977250720214</v>
       </c>
       <c r="S35" t="n">
         <v>105.0620184015843</v>
@@ -25210,19 +25210,19 @@
         <v>119.1377983794703</v>
       </c>
       <c r="U35" t="n">
-        <v>147.3876017231755</v>
+        <v>119.7975764628593</v>
       </c>
       <c r="V35" t="n">
-        <v>223.7942072854739</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W35" t="n">
-        <v>245.282917532752</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X35" t="n">
-        <v>265.773049493808</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y35" t="n">
-        <v>282.2798874713926</v>
+        <v>254.6898622110763</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.57513246520629</v>
+        <v>62.57513246520625</v>
       </c>
       <c r="C36" t="n">
-        <v>41.16042254333856</v>
+        <v>68.75044780365465</v>
       </c>
       <c r="D36" t="n">
-        <v>19.18572013069126</v>
+        <v>43.48701437997767</v>
       </c>
       <c r="E36" t="n">
-        <v>26.09700401042376</v>
+        <v>53.68702927073986</v>
       </c>
       <c r="F36" t="n">
-        <v>41.11116120872283</v>
+        <v>41.11116120872279</v>
       </c>
       <c r="G36" t="n">
-        <v>33.38546597854959</v>
+        <v>33.38546597854955</v>
       </c>
       <c r="H36" t="n">
-        <v>8.277393051835418</v>
+        <v>8.277393051835375</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>67.72511991917678</v>
+        <v>43.42382566989028</v>
       </c>
       <c r="T36" t="n">
-        <v>96.20667751016056</v>
+        <v>68.61665224984438</v>
       </c>
       <c r="U36" t="n">
-        <v>121.9833308963138</v>
+        <v>94.39330563599759</v>
       </c>
       <c r="V36" t="n">
         <v>128.8425359647642</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.87392899727625</v>
+        <v>75.87392899727621</v>
       </c>
       <c r="C37" t="n">
-        <v>63.28876991396679</v>
+        <v>63.28876991396675</v>
       </c>
       <c r="D37" t="n">
-        <v>44.65742183355131</v>
+        <v>44.65742183355127</v>
       </c>
       <c r="E37" t="n">
-        <v>42.47591146190813</v>
+        <v>42.47591146190808</v>
       </c>
       <c r="F37" t="n">
-        <v>41.4629968382702</v>
+        <v>41.46299683827016</v>
       </c>
       <c r="G37" t="n">
-        <v>64.03292817379771</v>
+        <v>64.03292817379767</v>
       </c>
       <c r="H37" t="n">
-        <v>58.26912132277853</v>
+        <v>58.26912132277849</v>
       </c>
       <c r="I37" t="n">
-        <v>51.49242374259724</v>
+        <v>51.4924237425972</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>49.03404594322199</v>
+        <v>45.74531493219226</v>
       </c>
       <c r="S37" t="n">
         <v>120.0585468523112</v>
@@ -25368,13 +25368,13 @@
         <v>123.9875382436204</v>
       </c>
       <c r="U37" t="n">
-        <v>154.7709529115137</v>
+        <v>158.0596839225433</v>
       </c>
       <c r="V37" t="n">
         <v>120.5895668788508</v>
       </c>
       <c r="W37" t="n">
-        <v>154.9749218916138</v>
+        <v>154.9749218916137</v>
       </c>
       <c r="X37" t="n">
         <v>121.7516042043761</v>
@@ -25393,25 +25393,25 @@
         <v>278.7757904788195</v>
       </c>
       <c r="C38" t="n">
-        <v>237.0135463370601</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D38" t="n">
-        <v>223.1349651757058</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E38" t="n">
-        <v>250.3822936272846</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F38" t="n">
-        <v>275.3279692967343</v>
+        <v>275.3279692967342</v>
       </c>
       <c r="G38" t="n">
-        <v>311.344686330474</v>
+        <v>287.0433920811875</v>
       </c>
       <c r="H38" t="n">
         <v>235.5167509311061</v>
       </c>
       <c r="I38" t="n">
-        <v>106.5178383857449</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>45.91106675648864</v>
+        <v>45.91106675648859</v>
       </c>
       <c r="S38" t="n">
-        <v>105.0620184015843</v>
+        <v>77.47199314126811</v>
       </c>
       <c r="T38" t="n">
-        <v>119.1377983794703</v>
+        <v>91.54777311915413</v>
       </c>
       <c r="U38" t="n">
-        <v>147.3876017231755</v>
+        <v>147.3876017231754</v>
       </c>
       <c r="V38" t="n">
-        <v>223.7942072854739</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W38" t="n">
-        <v>245.282917532752</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X38" t="n">
-        <v>265.773049493808</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y38" t="n">
-        <v>282.2798874713926</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.57513246520629</v>
+        <v>38.2738382159198</v>
       </c>
       <c r="C39" t="n">
-        <v>68.75044780365469</v>
+        <v>68.75044780365465</v>
       </c>
       <c r="D39" t="n">
-        <v>19.18572013069126</v>
+        <v>43.48701437997767</v>
       </c>
       <c r="E39" t="n">
-        <v>53.6870292707399</v>
+        <v>53.68702927073986</v>
       </c>
       <c r="F39" t="n">
-        <v>41.11116120872283</v>
+        <v>41.11116120872279</v>
       </c>
       <c r="G39" t="n">
-        <v>33.38546597854959</v>
+        <v>33.38546597854955</v>
       </c>
       <c r="H39" t="n">
-        <v>8.277393051835418</v>
+        <v>8.277393051835375</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>67.72511991917678</v>
+        <v>40.1350946588606</v>
       </c>
       <c r="T39" t="n">
-        <v>96.20667751016056</v>
+        <v>68.61665224984438</v>
       </c>
       <c r="U39" t="n">
-        <v>94.39330563599763</v>
+        <v>94.39330563599759</v>
       </c>
       <c r="V39" t="n">
         <v>128.8425359647642</v>
       </c>
       <c r="W39" t="n">
-        <v>147.7369319762586</v>
+        <v>147.7369319762585</v>
       </c>
       <c r="X39" t="n">
-        <v>74.22490875850029</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y39" t="n">
-        <v>74.13461933232718</v>
+        <v>101.7246445926433</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.5726347479898</v>
+        <v>75.87392899727621</v>
       </c>
       <c r="C40" t="n">
-        <v>35.69874465365065</v>
+        <v>63.28876991396675</v>
       </c>
       <c r="D40" t="n">
-        <v>44.65742183355131</v>
+        <v>44.65742183355127</v>
       </c>
       <c r="E40" t="n">
-        <v>42.47591146190813</v>
+        <v>42.47591146190808</v>
       </c>
       <c r="F40" t="n">
-        <v>13.87297157795406</v>
+        <v>41.46299683827016</v>
       </c>
       <c r="G40" t="n">
-        <v>64.03292817379771</v>
+        <v>64.03292817379767</v>
       </c>
       <c r="H40" t="n">
-        <v>58.26912132277853</v>
+        <v>58.26912132277849</v>
       </c>
       <c r="I40" t="n">
-        <v>51.49242374259724</v>
+        <v>51.4924237425972</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>45.7453149321923</v>
+        <v>45.74531493219226</v>
       </c>
       <c r="S40" t="n">
         <v>120.0585468523112</v>
       </c>
       <c r="T40" t="n">
-        <v>123.9875382436204</v>
+        <v>99.68624399433395</v>
       </c>
       <c r="U40" t="n">
-        <v>182.3609781718299</v>
+        <v>154.7709529115137</v>
       </c>
       <c r="V40" t="n">
-        <v>148.179592139167</v>
+        <v>120.5895668788508</v>
       </c>
       <c r="W40" t="n">
-        <v>182.56494715193</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X40" t="n">
         <v>121.7516042043761</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.1099277797201</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C41" t="n">
-        <v>339.9502721365335</v>
+        <v>315.648977887247</v>
       </c>
       <c r="D41" t="n">
-        <v>329.360421986209</v>
+        <v>329.3604219862088</v>
       </c>
       <c r="E41" t="n">
-        <v>356.6077504377878</v>
+        <v>329.0177251774716</v>
       </c>
       <c r="F41" t="n">
-        <v>381.5534261072374</v>
+        <v>381.5534261072373</v>
       </c>
       <c r="G41" t="n">
-        <v>362.3900926203449</v>
+        <v>389.9801178806609</v>
       </c>
       <c r="H41" t="n">
-        <v>314.1521824812932</v>
+        <v>314.152182481293</v>
       </c>
       <c r="I41" t="n">
-        <v>185.1532699359319</v>
+        <v>185.1532699359318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>124.5464983066757</v>
+        <v>124.5464983066756</v>
       </c>
       <c r="S41" t="n">
         <v>183.6974499517713</v>
       </c>
       <c r="T41" t="n">
-        <v>197.7732299296573</v>
+        <v>197.7732299296572</v>
       </c>
       <c r="U41" t="n">
-        <v>226.0230332733625</v>
+        <v>198.4330080130462</v>
       </c>
       <c r="V41" t="n">
-        <v>302.4296388356609</v>
+        <v>302.4296388356608</v>
       </c>
       <c r="W41" t="n">
-        <v>323.918349082939</v>
+        <v>323.9183490829389</v>
       </c>
       <c r="X41" t="n">
-        <v>316.8184557836789</v>
+        <v>316.8184557836788</v>
       </c>
       <c r="Y41" t="n">
-        <v>333.3252937612634</v>
+        <v>360.9153190215795</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>141.2105640153933</v>
+        <v>141.2105640153932</v>
       </c>
       <c r="C42" t="n">
-        <v>147.3858793538417</v>
+        <v>119.7958540935255</v>
       </c>
       <c r="D42" t="n">
         <v>122.1224459301647</v>
       </c>
       <c r="E42" t="n">
-        <v>132.3224608209269</v>
+        <v>132.3224608209268</v>
       </c>
       <c r="F42" t="n">
-        <v>119.7465927589099</v>
+        <v>119.7465927589098</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0208975287366</v>
+        <v>87.7196032794501</v>
       </c>
       <c r="H42" t="n">
-        <v>62.61153035273599</v>
+        <v>86.91282460202237</v>
       </c>
       <c r="I42" t="n">
-        <v>36.48398795662492</v>
+        <v>64.07401321694098</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>74.83521451816911</v>
+        <v>74.83521451816904</v>
       </c>
       <c r="S42" t="n">
-        <v>146.3605514693638</v>
+        <v>118.7705262090476</v>
       </c>
       <c r="T42" t="n">
-        <v>174.8421090603476</v>
+        <v>174.8421090603475</v>
       </c>
       <c r="U42" t="n">
-        <v>173.0287371861847</v>
+        <v>200.6187624465007</v>
       </c>
       <c r="V42" t="n">
         <v>207.4779675149512</v>
@@ -25772,7 +25772,7 @@
         <v>198.7823382661294</v>
       </c>
       <c r="X42" t="n">
-        <v>180.4503655690035</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y42" t="n">
         <v>180.3600761428303</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.5093605474633</v>
+        <v>154.5093605474632</v>
       </c>
       <c r="C43" t="n">
-        <v>141.9242014641538</v>
+        <v>141.9242014641537</v>
       </c>
       <c r="D43" t="n">
         <v>123.2928533837383</v>
@@ -25803,13 +25803,13 @@
         <v>142.6683597239847</v>
       </c>
       <c r="H43" t="n">
-        <v>136.9045528729656</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1278552927843</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J43" t="n">
-        <v>68.03656048219875</v>
+        <v>40.44653522188254</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.53812936793391</v>
+        <v>60.83942361722029</v>
       </c>
       <c r="R43" t="n">
-        <v>124.3807464823793</v>
+        <v>124.3807464823792</v>
       </c>
       <c r="S43" t="n">
-        <v>171.1039531421821</v>
+        <v>171.103953142182</v>
       </c>
       <c r="T43" t="n">
-        <v>175.0329445334913</v>
+        <v>202.6229697938074</v>
       </c>
       <c r="U43" t="n">
-        <v>260.9964097220169</v>
+        <v>260.9964097220168</v>
       </c>
       <c r="V43" t="n">
-        <v>226.815023689354</v>
+        <v>226.8150236893539</v>
       </c>
       <c r="W43" t="n">
-        <v>261.200378702117</v>
+        <v>261.2003787021169</v>
       </c>
       <c r="X43" t="n">
-        <v>200.3870357545631</v>
+        <v>176.0857415052766</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.2620337176208</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.4112220290066</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C44" t="n">
-        <v>339.9502721365335</v>
+        <v>339.9502721365334</v>
       </c>
       <c r="D44" t="n">
-        <v>329.360421986209</v>
+        <v>329.3604219862088</v>
       </c>
       <c r="E44" t="n">
-        <v>356.6077504377878</v>
+        <v>356.6077504377877</v>
       </c>
       <c r="F44" t="n">
-        <v>381.5534261072374</v>
+        <v>381.5534261072373</v>
       </c>
       <c r="G44" t="n">
-        <v>389.9801178806611</v>
+        <v>389.9801178806609</v>
       </c>
       <c r="H44" t="n">
-        <v>314.1521824812932</v>
+        <v>289.8508882320066</v>
       </c>
       <c r="I44" t="n">
-        <v>185.1532699359319</v>
+        <v>185.1532699359318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>124.5464983066757</v>
+        <v>124.5464983066756</v>
       </c>
       <c r="S44" t="n">
-        <v>156.1074246914552</v>
+        <v>156.1074246914551</v>
       </c>
       <c r="T44" t="n">
-        <v>197.7732299296573</v>
+        <v>170.1832046693411</v>
       </c>
       <c r="U44" t="n">
-        <v>198.4330080130463</v>
+        <v>226.0230332733624</v>
       </c>
       <c r="V44" t="n">
-        <v>302.4296388356609</v>
+        <v>274.8396135753446</v>
       </c>
       <c r="W44" t="n">
-        <v>296.3283238226229</v>
+        <v>323.9183490829389</v>
       </c>
       <c r="X44" t="n">
-        <v>344.408481043995</v>
+        <v>344.4084810439949</v>
       </c>
       <c r="Y44" t="n">
-        <v>336.6140247722931</v>
+        <v>360.9153190215795</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>141.2105640153933</v>
+        <v>141.2105640153932</v>
       </c>
       <c r="C45" t="n">
-        <v>147.3858793538417</v>
+        <v>147.3858793538416</v>
       </c>
       <c r="D45" t="n">
         <v>122.1224459301647</v>
       </c>
       <c r="E45" t="n">
-        <v>132.3224608209269</v>
+        <v>132.3224608209268</v>
       </c>
       <c r="F45" t="n">
-        <v>119.7465927589099</v>
+        <v>119.7465927589098</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0208975287366</v>
+        <v>84.4308722684204</v>
       </c>
       <c r="H45" t="n">
-        <v>86.91282460202244</v>
+        <v>62.61153035273592</v>
       </c>
       <c r="I45" t="n">
-        <v>64.07401321694105</v>
+        <v>64.07401321694098</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>74.83521451816911</v>
+        <v>47.2451892578529</v>
       </c>
       <c r="S45" t="n">
-        <v>146.3605514693638</v>
+        <v>146.3605514693637</v>
       </c>
       <c r="T45" t="n">
-        <v>174.8421090603476</v>
+        <v>174.8421090603475</v>
       </c>
       <c r="U45" t="n">
-        <v>173.0287371861847</v>
+        <v>200.6187624465007</v>
       </c>
       <c r="V45" t="n">
-        <v>183.1766732656648</v>
+        <v>207.4779675149512</v>
       </c>
       <c r="W45" t="n">
         <v>198.7823382661294</v>
       </c>
       <c r="X45" t="n">
-        <v>152.8603403086873</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y45" t="n">
         <v>180.3600761428303</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>154.5093605474633</v>
+        <v>154.5093605474632</v>
       </c>
       <c r="C46" t="n">
-        <v>141.9242014641538</v>
+        <v>141.9242014641537</v>
       </c>
       <c r="D46" t="n">
         <v>123.2928533837383</v>
       </c>
       <c r="E46" t="n">
-        <v>93.52131775177901</v>
+        <v>121.1113430120951</v>
       </c>
       <c r="F46" t="n">
-        <v>92.50840312814108</v>
+        <v>120.0984283884572</v>
       </c>
       <c r="G46" t="n">
-        <v>115.0783344636686</v>
+        <v>142.6683597239847</v>
       </c>
       <c r="H46" t="n">
-        <v>136.9045528729656</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1278552927843</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J46" t="n">
-        <v>68.03656048219875</v>
+        <v>68.03656048219868</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.83942361722036</v>
+        <v>60.83942361722029</v>
       </c>
       <c r="R46" t="n">
-        <v>151.9707717426955</v>
+        <v>127.6694774934089</v>
       </c>
       <c r="S46" t="n">
-        <v>198.6939784024982</v>
+        <v>171.103953142182</v>
       </c>
       <c r="T46" t="n">
-        <v>202.6229697938075</v>
+        <v>175.0329445334912</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9964097220169</v>
+        <v>233.4063844617006</v>
       </c>
       <c r="V46" t="n">
-        <v>226.815023689354</v>
+        <v>226.8150236893539</v>
       </c>
       <c r="W46" t="n">
-        <v>261.200378702117</v>
+        <v>261.2003787021169</v>
       </c>
       <c r="X46" t="n">
-        <v>200.3870357545631</v>
+        <v>200.387035754563</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.9607394683343</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>480365.305435034</v>
+        <v>480365.3054350342</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>461163.1362949153</v>
+        <v>461163.1362949155</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>486995.4680864553</v>
+        <v>486995.4680864554</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>486995.4680864553</v>
+        <v>486995.4680864555</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>342840.15284185</v>
+        <v>342840.1528418501</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491121</v>
+        <v>798794.4302491125</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="E2" t="n">
         <v>419675.699209723</v>
       </c>
       <c r="F2" t="n">
-        <v>419675.6992097232</v>
+        <v>419675.6992097231</v>
       </c>
       <c r="G2" t="n">
-        <v>443833.2668376149</v>
+        <v>443833.2668376144</v>
       </c>
       <c r="H2" t="n">
-        <v>443833.2668376148</v>
+        <v>443833.2668376144</v>
       </c>
       <c r="I2" t="n">
-        <v>459074.8763614183</v>
+        <v>459074.8763614188</v>
       </c>
       <c r="J2" t="n">
         <v>434917.308733527</v>
       </c>
       <c r="K2" t="n">
-        <v>434917.308733527</v>
+        <v>434917.3087335271</v>
       </c>
       <c r="L2" t="n">
-        <v>467416.048729335</v>
+        <v>467416.0487293358</v>
       </c>
       <c r="M2" t="n">
-        <v>467416.0487293355</v>
+        <v>467416.0487293358</v>
       </c>
       <c r="N2" t="n">
         <v>467416.0487293355</v>
@@ -26389,13 +26389,13 @@
         <v>7336.767107248528</v>
       </c>
       <c r="J3" t="n">
-        <v>62908.34524014962</v>
+        <v>62908.3452401496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20258.09570757922</v>
+        <v>20258.09570757925</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>252607.0155662679</v>
       </c>
       <c r="J4" t="n">
+        <v>238465.1240505632</v>
+      </c>
+      <c r="K4" t="n">
         <v>238465.1240505631</v>
-      </c>
-      <c r="K4" t="n">
-        <v>238465.1240505632</v>
       </c>
       <c r="L4" t="n">
         <v>257489.955627033</v>
@@ -26456,10 +26456,10 @@
         <v>257489.955627033</v>
       </c>
       <c r="O4" t="n">
-        <v>151323.3650337779</v>
+        <v>151323.365033778</v>
       </c>
       <c r="P4" t="n">
-        <v>151323.3650337779</v>
+        <v>151323.365033778</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>10417.12294087049</v>
       </c>
       <c r="O5" t="n">
-        <v>3806.320845877818</v>
+        <v>3806.320845877824</v>
       </c>
       <c r="P5" t="n">
-        <v>3806.320845877818</v>
+        <v>3806.320845877824</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312766.8397001469</v>
+        <v>312722.7039214663</v>
       </c>
       <c r="C6" t="n">
-        <v>312766.839700147</v>
+        <v>312722.7039214665</v>
       </c>
       <c r="D6" t="n">
-        <v>312766.8397001472</v>
+        <v>312722.7039214664</v>
       </c>
       <c r="E6" t="n">
-        <v>110179.829066258</v>
+        <v>100414.7001840028</v>
       </c>
       <c r="F6" t="n">
-        <v>181697.1353473901</v>
+        <v>171932.0064651349</v>
       </c>
       <c r="G6" t="n">
-        <v>182199.1669864018</v>
+        <v>173053.4629151176</v>
       </c>
       <c r="H6" t="n">
-        <v>190808.1280273842</v>
+        <v>181662.4239561001</v>
       </c>
       <c r="I6" t="n">
-        <v>189033.4511926961</v>
+        <v>180278.5576220234</v>
       </c>
       <c r="J6" t="n">
-        <v>124350.8803798015</v>
+        <v>114976.5619981565</v>
       </c>
       <c r="K6" t="n">
-        <v>187259.225619951</v>
+        <v>177884.9072383063</v>
       </c>
       <c r="L6" t="n">
-        <v>179250.8744538523</v>
+        <v>170709.8570977417</v>
       </c>
       <c r="M6" t="n">
-        <v>199508.9701614321</v>
+        <v>190967.952805321</v>
       </c>
       <c r="N6" t="n">
-        <v>199508.970161432</v>
+        <v>190967.9528053207</v>
       </c>
       <c r="O6" t="n">
-        <v>130929.6759290467</v>
+        <v>117738.487113432</v>
       </c>
       <c r="P6" t="n">
-        <v>130929.6759290468</v>
+        <v>117738.487113432</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="M2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="N2" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="O2" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="P2" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018699</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018699</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29240,7 +29240,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.05219210260454</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>100.1578341526431</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y33" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="34">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J34" t="n">
         <v>95.24932896758294</v>
@@ -29954,28 +29954,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y35" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -30191,28 +30191,28 @@
         <v>88.05219210260454</v>
       </c>
       <c r="R37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y38" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30352,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y39" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="40">
@@ -30380,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -30425,31 +30425,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.05219210260454</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.958051184661</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y42" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>4.611589586016663</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="R43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y44" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
     <row r="46">
@@ -30854,34 +30854,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="C46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="D46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="E46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="F46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="G46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="H46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="I46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="J46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="K46" t="n">
-        <v>24.15964067679301</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30896,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="R46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="S46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="T46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="U46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="V46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="W46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="X46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.32261963447402</v>
+        <v>25.32261963447409</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L23" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N27" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>27.59002526031614</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L29" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>27.59002526031614</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O30" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O32" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O32" t="n">
-        <v>26.47527676494983</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M33" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M35" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
         <v>27.59002526031614</v>
@@ -37323,7 +37323,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M36" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N36" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>26.47527676494983</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N38" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="O38" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P38" t="n">
-        <v>26.47527676494983</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L42" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M42" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L43" t="n">
         <v>27.59002526031614</v>
@@ -37955,7 +37955,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
-        <v>1.890148850910151</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>27.59002526031614</v>
       </c>
       <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>26.47527676494983</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M45" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>27.59002526031614</v>
@@ -38116,7 +38116,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.89014885091016</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>27.59002526031614</v>
@@ -38192,7 +38192,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
